--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="57">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -156,6 +156,36 @@
   </si>
   <si>
     <t xml:space="preserve">FUTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC: &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC: &lt;value&gt; V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt; Volt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B &lt;value&gt; V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verdanab.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt; VOLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt; V</t>
   </si>
 </sst>
 </file>
@@ -1386,10 +1416,10 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1397,9 +1427,13 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
       <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
       <c r="J4"/>
       <c r="L4" s="4" t="s">
         <v>9</v>
@@ -1618,7 +1652,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -1630,9 +1664,10 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
+    <row r="5"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
